--- a/Phase2_LMS_API_RestAssured/src/main/resources/Data/DataforTest.xlsx
+++ b/Phase2_LMS_API_RestAssured/src/main/resources/Data/DataforTest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,12 +114,562 @@
   <si>
     <t>Rama4</t>
   </si>
+  <si>
+    <r>
+      <t>userComments</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>userEduPg</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>userEduUg</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>userFirstName</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>userLastName</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>userLinkedinUrl</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>userLocation</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>userMiddleName</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>userPhoneNumber</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>userRoleMaps</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>roleId</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>userRoleStatus</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>userTimeZone</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>userVisaStatus</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Good Score</t>
+  </si>
+  <si>
+    <t>mba</t>
+  </si>
+  <si>
+    <t>ba</t>
+  </si>
+  <si>
+    <t>TechGeeks</t>
+  </si>
+  <si>
+    <t>Priya</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/johncena</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>llastrani@te12s.co</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>No Scroe</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>puc</t>
+  </si>
+  <si>
+    <t>Priyanka</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/kara</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>cawli1hyki@6enq22245.i</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>R02</t>
+  </si>
+  <si>
+    <t>MST</t>
+  </si>
+  <si>
+    <t>H4-EAD</t>
+  </si>
+  <si>
+    <t>low Score</t>
+  </si>
+  <si>
+    <t>MCom</t>
+  </si>
+  <si>
+    <t>bcom</t>
+  </si>
+  <si>
+    <t>TeamLead</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/peanut</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>efr61349r@aatytyz.co</t>
+  </si>
+  <si>
+    <t>R03</t>
+  </si>
+  <si>
+    <t>CST</t>
+  </si>
+  <si>
+    <t>H1B</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>userComments</t>
+  </si>
+  <si>
+    <t>userEduPg</t>
+  </si>
+  <si>
+    <t>userEduUg</t>
+  </si>
+  <si>
+    <t>userFirstName</t>
+  </si>
+  <si>
+    <t>userLastName</t>
+  </si>
+  <si>
+    <t>userLinkedinUrl</t>
+  </si>
+  <si>
+    <t>userLocation</t>
+  </si>
+  <si>
+    <t>userRoleStatus</t>
+  </si>
+  <si>
+    <t>userMiddleName</t>
+  </si>
+  <si>
+    <t>userPhoneNumber</t>
+  </si>
+  <si>
+    <t>roleId</t>
+  </si>
+  <si>
+    <t>userVisaStatus</t>
+  </si>
+  <si>
+    <t>userTimeZone</t>
+  </si>
+  <si>
+    <t>RestFulRulers</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>llastrani@te13s.co</t>
+  </si>
+  <si>
+    <t>cawli1hyki@6enq22255.i</t>
+  </si>
+  <si>
+    <t>efr61359r@aatytyz.co</t>
+  </si>
+  <si>
+    <t>cawli1hyki@6enq22256.i</t>
+  </si>
+  <si>
+    <t>efr61350r@aatytyz.co</t>
+  </si>
+  <si>
+    <t>abcdef@ghi1.com</t>
+  </si>
+  <si>
+    <t>abcdef@ghi2.com</t>
+  </si>
+  <si>
+    <t>abcdef@ghi3.com</t>
+  </si>
+  <si>
+    <t>abcdef@ghi4.com</t>
+  </si>
+  <si>
+    <t>abcdef@ghi5.com</t>
+  </si>
+  <si>
+    <t>abcdef@ghi6.com</t>
+  </si>
+  <si>
+    <t>All valid</t>
+  </si>
+  <si>
+    <t>only Mandatory</t>
+  </si>
+  <si>
+    <t>Invalid Phonenumber</t>
+  </si>
+  <si>
+    <t>Invalid userRoleStatus</t>
+  </si>
+  <si>
+    <t>Invalid roleId</t>
+  </si>
+  <si>
+    <t>Invalid userTimeZone</t>
+  </si>
+  <si>
+    <t>Invalid userVisaStatus</t>
+  </si>
+  <si>
+    <t>Invalid LinkedIn</t>
+  </si>
+  <si>
+    <t>Invalid userLinkedinUrl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">missing </t>
+  </si>
+  <si>
+    <t>missing Phonenumber</t>
+  </si>
+  <si>
+    <t>missing userComments</t>
+  </si>
+  <si>
+    <t>missing userEduPg</t>
+  </si>
+  <si>
+    <t>missing userEduUg</t>
+  </si>
+  <si>
+    <t>missing userFirstName</t>
+  </si>
+  <si>
+    <t>missing userLastName</t>
+  </si>
+  <si>
+    <t>missing userLinkedinUrl</t>
+  </si>
+  <si>
+    <t>missing userLocation</t>
+  </si>
+  <si>
+    <t>missing userRoleStatus</t>
+  </si>
+  <si>
+    <t>missing userLoginEmail</t>
+  </si>
+  <si>
+    <t>missing userMiddleName</t>
+  </si>
+  <si>
+    <t>missing roleId</t>
+  </si>
+  <si>
+    <t>missing userTimeZone</t>
+  </si>
+  <si>
+    <t>missing userVisaStatus</t>
+  </si>
+  <si>
+    <t>existing phone number</t>
+  </si>
+  <si>
+    <t>existing missing userLoginEmail</t>
+  </si>
+  <si>
+    <t>existing missing linkedIn</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EAD</t>
+  </si>
+  <si>
+    <t>www.linke.com/peanut</t>
+  </si>
+  <si>
+    <t>existing  linkedIn</t>
+  </si>
+  <si>
+    <t>abcdef1@ghi5.com</t>
+  </si>
+  <si>
+    <t>abcdef2@ghi5.com</t>
+  </si>
+  <si>
+    <t>abcdef3@ghi5.com</t>
+  </si>
+  <si>
+    <t>abcdef4@ghi5.com</t>
+  </si>
+  <si>
+    <t>abcdef5@ghi5.com</t>
+  </si>
+  <si>
+    <t>abcdef6@ghi5.com</t>
+  </si>
+  <si>
+    <t>abcdef7@ghi5.com</t>
+  </si>
+  <si>
+    <t>abcdef8@ghi5.com</t>
+  </si>
+  <si>
+    <t>abcdef9@ghi5.com</t>
+  </si>
+  <si>
+    <t>abcdef10@ghi5.com</t>
+  </si>
+  <si>
+    <t>abcdef11@ghi5.com</t>
+  </si>
+  <si>
+    <t>abcdef12@ghi5.com</t>
+  </si>
+  <si>
+    <t>abcdef13@ghi5.com</t>
+  </si>
+  <si>
+    <t>abcdef14@ghi5.com</t>
+  </si>
+  <si>
+    <t>abcdef15@ghi5.com</t>
+  </si>
+  <si>
+    <t>abcdef16@ghi5.com</t>
+  </si>
+  <si>
+    <t>abcdef17@ghi5.com</t>
+  </si>
+  <si>
+    <t>abcdef18@ghi5.com</t>
+  </si>
+  <si>
+    <t>abcdef19@ghi5.com</t>
+  </si>
+  <si>
+    <t>abcdef20@ghi5.com</t>
+  </si>
+  <si>
+    <t>abcdef21@ghi5.com</t>
+  </si>
+  <si>
+    <t>abcdef22@ghi5.com</t>
+  </si>
+  <si>
+    <t>existing userLoginEmail</t>
+  </si>
+  <si>
+    <t>userLoginEmailId</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,16 +732,202 @@
       <name val="Segoe UI"/>
       <color rgb="FF000000"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Courier New"/>
+      <color rgb="FFEBEBEB"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Courier New"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Courier New"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Segoe UI"/>
+      <color theme="10"/>
+      <u val="single"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color theme="10"/>
+      <u val="single"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color theme="10"/>
+      <u val="single"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -216,11 +952,45 @@
         <color rgb="FF000000"/>
       </diagonal>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
@@ -228,6 +998,44 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="26" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="27" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="28" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="29" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="32" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="33" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="35" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="38" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="39" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,7 +1353,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -556,7 +1364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -582,74 +1390,1269 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView workbookViewId="0" topLeftCell="E1">
+      <selection activeCell="M15" activeCellId="0" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
+        <v>74</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
+        <v>76</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>13</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="6">
+        <v>1567123483</v>
+      </c>
+      <c r="M2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" t="s">
         <v>13</v>
       </c>
+      <c r="J3" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="6">
+        <v>1567123484</v>
+      </c>
+      <c r="M3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>8</v>
+      <c r="A4" s="0" t="s">
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" t="s">
         <v>13</v>
       </c>
+      <c r="J4" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1567123485</v>
+      </c>
+      <c r="M4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="K5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="6">
+        <v>4567</v>
+      </c>
+      <c r="M5" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>130</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1567123486</v>
+      </c>
+      <c r="M6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="6">
+        <v>1567123487</v>
+      </c>
+      <c r="M7">
+        <v>123</v>
+      </c>
+      <c r="N7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="6">
+        <v>4567123488</v>
+      </c>
+      <c r="M8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" t="s">
+        <v>131</v>
+      </c>
+      <c r="O8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="6">
+        <v>4567123489</v>
+      </c>
+      <c r="M9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" t="s">
+        <v>72</v>
+      </c>
+      <c r="O9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="6">
+        <v>4567123410</v>
+      </c>
+      <c r="M10" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" t="s">
+        <v>72</v>
+      </c>
+      <c r="O10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" t="s">
+        <v>71</v>
+      </c>
+      <c r="N11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" s="22">
+      <c r="A12" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" s="24">
+        <v>4567123411</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" s="22">
+      <c r="A13" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" s="24">
+        <v>4567123412</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O13" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" s="22">
+      <c r="A14" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="24">
+        <v>4567123413</v>
+      </c>
+      <c r="M14" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="N14" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O14" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" s="22">
+      <c r="A15" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="L15" s="24">
+        <v>4567123414</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O15" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="6">
+        <v>4567123415</v>
+      </c>
+      <c r="M16" t="s">
+        <v>71</v>
+      </c>
+      <c r="N16" t="s">
+        <v>72</v>
+      </c>
+      <c r="O16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="6">
+        <v>4567123416</v>
+      </c>
+      <c r="M17" t="s">
+        <v>71</v>
+      </c>
+      <c r="N17" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K18" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" s="6">
+        <v>4567123417</v>
+      </c>
+      <c r="M18" t="s">
+        <v>71</v>
+      </c>
+      <c r="N18" t="s">
+        <v>72</v>
+      </c>
+      <c r="O18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" t="s">
+        <v>60</v>
+      </c>
+      <c r="L19" s="6">
+        <v>4567123418</v>
+      </c>
+      <c r="M19" t="s">
+        <v>71</v>
+      </c>
+      <c r="N19" t="s">
+        <v>72</v>
+      </c>
+      <c r="O19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L20" s="6">
+        <v>4567123419</v>
+      </c>
+      <c r="M20" t="s">
+        <v>71</v>
+      </c>
+      <c r="N20" t="s">
+        <v>72</v>
+      </c>
+      <c r="O20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K21" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21" s="6">
+        <v>4567123420</v>
+      </c>
+      <c r="N21" t="s">
+        <v>72</v>
+      </c>
+      <c r="O21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" t="s">
+        <v>60</v>
+      </c>
+      <c r="L22" s="6">
+        <v>4567123421</v>
+      </c>
+      <c r="M22" t="s">
+        <v>71</v>
+      </c>
+      <c r="O22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K23" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" s="6">
+        <v>4567123422</v>
+      </c>
+      <c r="M23" t="s">
+        <v>71</v>
+      </c>
+      <c r="N23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K24" t="s">
+        <v>60</v>
+      </c>
+      <c r="L24" s="6">
+        <v>1567123483</v>
+      </c>
+      <c r="M24" t="s">
+        <v>71</v>
+      </c>
+      <c r="N24" t="s">
+        <v>72</v>
+      </c>
+      <c r="O24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K25" t="s">
+        <v>60</v>
+      </c>
+      <c r="L25" s="6">
+        <v>4567123424</v>
+      </c>
+      <c r="M25" t="s">
+        <v>71</v>
+      </c>
+      <c r="N25" t="s">
+        <v>72</v>
+      </c>
+      <c r="O25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" t="s">
+        <v>60</v>
+      </c>
+      <c r="L26" s="6">
+        <v>4567123425</v>
+      </c>
+      <c r="M26" t="s">
+        <v>71</v>
+      </c>
+      <c r="N26" t="s">
+        <v>72</v>
+      </c>
+      <c r="O26" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" display="llastrani@te12s.co" r:id="rId1"/>
+    <hyperlink ref="I3" display="cawli1hyki@6enq22245.i" r:id="rId2"/>
+    <hyperlink ref="I4" display="efr61349r@aatytyz.co" r:id="rId3"/>
+    <hyperlink ref="J3" display="abcdef@ghi4.com" r:id="rId13"/>
+    <hyperlink ref="J4" display="abcdef@ghi5.com" r:id="rId14"/>
+    <hyperlink ref="J2" display="abcdef@ghi6.com" r:id="rId15"/>
+    <hyperlink ref="I4" display="efr61349r@aatytyz.co" r:id="rId16"/>
+    <hyperlink ref="I5" display="efr61349r@aatytyz.co" r:id="rId17"/>
+    <hyperlink ref="I6" display="efr61349r@aatytyz.co" r:id="rId18"/>
+    <hyperlink ref="I7" display="efr61349r@aatytyz.co" r:id="rId19"/>
+    <hyperlink ref="I8" display="efr61349r@aatytyz.co" r:id="rId20"/>
+    <hyperlink ref="I9" display="efr61349r@aatytyz.co" r:id="rId21"/>
+    <hyperlink ref="I10" display="efr61349r@aatytyz.co" r:id="rId22"/>
+    <hyperlink ref="I11" display="efr61349r@aatytyz.co" r:id="rId23"/>
+    <hyperlink ref="I12" display="efr61349r@aatytyz.co" r:id="rId24"/>
+    <hyperlink ref="I13" display="efr61349r@aatytyz.co" r:id="rId25"/>
+    <hyperlink ref="I14" display="efr61349r@aatytyz.co" r:id="rId26"/>
+    <hyperlink ref="I15" display="efr61349r@aatytyz.co" r:id="rId27"/>
+    <hyperlink ref="I16" display="efr61349r@aatytyz.co" r:id="rId28"/>
+    <hyperlink ref="I17" display="efr61349r@aatytyz.co" r:id="rId29"/>
+    <hyperlink ref="I18" display="efr61349r@aatytyz.co" r:id="rId30"/>
+    <hyperlink ref="I19" display="efr61349r@aatytyz.co" r:id="rId31"/>
+    <hyperlink ref="J19" display="abcdef@ghi5.com" r:id="rId32"/>
+    <hyperlink ref="I20" display="efr61349r@aatytyz.co" r:id="rId33"/>
+    <hyperlink ref="I21" display="efr61349r@aatytyz.co" r:id="rId34"/>
+    <hyperlink ref="I22" display="efr61349r@aatytyz.co" r:id="rId35"/>
+    <hyperlink ref="I23" display="efr61349r@aatytyz.co" r:id="rId36"/>
+    <hyperlink ref="I24" display="efr61349r@aatytyz.co" r:id="rId37"/>
+    <hyperlink ref="I25" display="efr61349r@aatytyz.co" r:id="rId38"/>
+    <hyperlink ref="J25" display="abcdef@ghi5.com" r:id="rId39"/>
+    <hyperlink ref="I25" display="efr61349r@aatytyz.co" r:id="rId40"/>
+    <hyperlink ref="I26" display="efr61349r@aatytyz.co" r:id="rId41"/>
+    <hyperlink ref="G10" display="www.linke.com/peanut" r:id="rId42"/>
+    <hyperlink ref="J4" display="abcdef1@ghi5.com" r:id="rId43"/>
+    <hyperlink ref="J5" display="abcdef2@ghi5.com" r:id="rId44"/>
+    <hyperlink ref="J6" display="abcdef3@ghi5.com" r:id="rId45"/>
+    <hyperlink ref="J7" display="abcdef4@ghi5.com" r:id="rId46"/>
+    <hyperlink ref="J8" display="abcdef5@ghi5.com" r:id="rId47"/>
+    <hyperlink ref="J9" display="abcdef6@ghi5.com" r:id="rId48"/>
+    <hyperlink ref="J10" display="abcdef7@ghi5.com" r:id="rId49"/>
+    <hyperlink ref="J11" display="abcdef8@ghi5.com" r:id="rId50"/>
+    <hyperlink ref="J12" display="abcdef9@ghi5.com" r:id="rId51"/>
+    <hyperlink ref="J13" display="abcdef10@ghi5.com" r:id="rId52"/>
+    <hyperlink ref="J14" display="abcdef11@ghi5.com" r:id="rId53"/>
+    <hyperlink ref="J15" display="abcdef12@ghi5.com" r:id="rId54"/>
+    <hyperlink ref="J16" display="abcdef13@ghi5.com" r:id="rId55"/>
+    <hyperlink ref="J17" display="abcdef14@ghi5.com" r:id="rId56"/>
+    <hyperlink ref="J18" display="abcdef15@ghi5.com" r:id="rId57"/>
+    <hyperlink ref="J20" display="abcdef16@ghi5.com" r:id="rId58"/>
+    <hyperlink ref="J21" display="abcdef17@ghi5.com" r:id="rId59"/>
+    <hyperlink ref="J22" display="abcdef18@ghi5.com" r:id="rId60"/>
+    <hyperlink ref="J23" display="abcdef19@ghi5.com" r:id="rId61"/>
+    <hyperlink ref="J24" display="abcdef20@ghi5.com" r:id="rId62"/>
+    <hyperlink ref="J26" display="abcdef22@ghi5.com" r:id="rId63"/>
+    <hyperlink ref="J25" display="abcdef@ghi6.com" r:id="rId64"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -658,10 +2661,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="A1" activeCellId="0" sqref="1:4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" s="0"/>
+    <row r="2" customFormat="1" s="0"/>
+    <row r="3" customFormat="1" s="0"/>
+    <row r="4" customFormat="1" s="0"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Phase2_LMS_API_RestAssured/src/main/resources/Data/DataforTest.xlsx
+++ b/Phase2_LMS_API_RestAssured/src/main/resources/Data/DataforTest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -664,12 +664,57 @@
   <si>
     <t>userLoginEmailId</t>
   </si>
+  <si>
+    <t>Sudha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rani </t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Sudha001</t>
+  </si>
+  <si>
+    <t>Rani001</t>
+  </si>
+  <si>
+    <t>Sudha002</t>
+  </si>
+  <si>
+    <t>Rani002</t>
+  </si>
+  <si>
+    <t>Sudha004</t>
+  </si>
+  <si>
+    <t>Rani004</t>
+  </si>
+  <si>
+    <t>Sudha005</t>
+  </si>
+  <si>
+    <t>Rani005</t>
+  </si>
+  <si>
+    <t>Sudha006</t>
+  </si>
+  <si>
+    <t>Rani006</t>
+  </si>
+  <si>
+    <t>Sudha007</t>
+  </si>
+  <si>
+    <t>Rani0010</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -897,6 +942,58 @@
       <color theme="10"/>
       <u val="single"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Courier New"/>
+      <color rgb="FF17C6A3"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <sz val="9"/>
@@ -990,7 +1087,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
@@ -1036,6 +1133,8 @@
       <alignment/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="44" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="47" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1390,8 +1489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="E1">
-      <selection activeCell="M15" activeCellId="0" sqref="M15"/>
+    <sheetView workbookViewId="0" topLeftCell="F1" tabSelected="1">
+      <selection activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2662,7 +2761,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="A1" activeCellId="0" sqref="1:4"/>
+      <selection activeCell="A1" activeCellId="0" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2681,8 +2780,14 @@
     <col min="13" max="13" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="0"/>
-    <row r="2" customFormat="1" s="0"/>
+    <row r="1" customFormat="1" s="0">
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+    </row>
+    <row r="2" customFormat="1" s="0">
+      <c r="B2" s="26"/>
+    </row>
     <row r="3" customFormat="1" s="0"/>
     <row r="4" customFormat="1" s="0"/>
   </sheetData>
